--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Vim-Cd44.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Vim-Cd44.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>358.11229774801</v>
+        <v>468.2935736666666</v>
       </c>
       <c r="H2">
-        <v>358.11229774801</v>
+        <v>1404.880721</v>
       </c>
       <c r="I2">
-        <v>0.2246368677196533</v>
+        <v>0.2378793178672371</v>
       </c>
       <c r="J2">
-        <v>0.2246368677196533</v>
+        <v>0.2378793178672371</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>47.8227860038808</v>
+        <v>261.380203</v>
       </c>
       <c r="N2">
-        <v>47.8227860038808</v>
+        <v>784.1406089999999</v>
       </c>
       <c r="O2">
-        <v>0.3806232427642833</v>
+        <v>0.6968677182772199</v>
       </c>
       <c r="P2">
-        <v>0.3806232427642833</v>
+        <v>0.6968677182772199</v>
       </c>
       <c r="Q2">
-        <v>17125.92778056113</v>
+        <v>122402.6693485888</v>
       </c>
       <c r="R2">
-        <v>17125.92778056113</v>
+        <v>1101624.024137299</v>
       </c>
       <c r="S2">
-        <v>0.0855020130358658</v>
+        <v>0.1657704174674831</v>
       </c>
       <c r="T2">
-        <v>0.0855020130358658</v>
+        <v>0.165770417467483</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>358.11229774801</v>
+        <v>468.2935736666666</v>
       </c>
       <c r="H3">
-        <v>358.11229774801</v>
+        <v>1404.880721</v>
       </c>
       <c r="I3">
-        <v>0.2246368677196533</v>
+        <v>0.2378793178672371</v>
       </c>
       <c r="J3">
-        <v>0.2246368677196533</v>
+        <v>0.2378793178672371</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>31.9201308328135</v>
+        <v>31.999428</v>
       </c>
       <c r="N3">
-        <v>31.9201308328135</v>
+        <v>95.998284</v>
       </c>
       <c r="O3">
-        <v>0.2540534486230001</v>
+        <v>0.08531391482826334</v>
       </c>
       <c r="P3">
-        <v>0.2540534486230001</v>
+        <v>0.08531391482826335</v>
       </c>
       <c r="Q3">
-        <v>11430.99139695594</v>
+        <v>14985.12649340919</v>
       </c>
       <c r="R3">
-        <v>11430.99139695594</v>
+        <v>134866.1384406828</v>
       </c>
       <c r="S3">
-        <v>0.05706977093204661</v>
+        <v>0.02029441586393085</v>
       </c>
       <c r="T3">
-        <v>0.05706977093204661</v>
+        <v>0.02029441586393085</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>358.11229774801</v>
+        <v>468.2935736666666</v>
       </c>
       <c r="H4">
-        <v>358.11229774801</v>
+        <v>1404.880721</v>
       </c>
       <c r="I4">
-        <v>0.2246368677196533</v>
+        <v>0.2378793178672371</v>
       </c>
       <c r="J4">
-        <v>0.2246368677196533</v>
+        <v>0.2378793178672371</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>45.9004507531747</v>
+        <v>81.69901900000001</v>
       </c>
       <c r="N4">
-        <v>45.9004507531747</v>
+        <v>245.097057</v>
       </c>
       <c r="O4">
-        <v>0.3653233086127166</v>
+        <v>0.2178183668945166</v>
       </c>
       <c r="P4">
-        <v>0.3653233086127166</v>
+        <v>0.2178183668945167</v>
       </c>
       <c r="Q4">
-        <v>16437.51588688877</v>
+        <v>38259.1255725709</v>
       </c>
       <c r="R4">
-        <v>16437.51588688877</v>
+        <v>344332.1301531381</v>
       </c>
       <c r="S4">
-        <v>0.08206508375174089</v>
+        <v>0.05181448453582321</v>
       </c>
       <c r="T4">
-        <v>0.08206508375174089</v>
+        <v>0.05181448453582321</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>712.176586508504</v>
+        <v>715.8492226666667</v>
       </c>
       <c r="H5">
-        <v>712.176586508504</v>
+        <v>2147.547668</v>
       </c>
       <c r="I5">
-        <v>0.4467344982637755</v>
+        <v>0.3636302831371944</v>
       </c>
       <c r="J5">
-        <v>0.4467344982637755</v>
+        <v>0.3636302831371944</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>47.8227860038808</v>
+        <v>261.380203</v>
       </c>
       <c r="N5">
-        <v>47.8227860038808</v>
+        <v>784.1406089999999</v>
       </c>
       <c r="O5">
-        <v>0.3806232427642833</v>
+        <v>0.6968677182772199</v>
       </c>
       <c r="P5">
-        <v>0.3806232427642833</v>
+        <v>0.6968677182772199</v>
       </c>
       <c r="Q5">
-        <v>34058.26849357049</v>
+        <v>187108.8151380055</v>
       </c>
       <c r="R5">
-        <v>34058.26849357049</v>
+        <v>1683979.33624205</v>
       </c>
       <c r="S5">
-        <v>0.1700375333838333</v>
+        <v>0.2534022057063161</v>
       </c>
       <c r="T5">
-        <v>0.1700375333838333</v>
+        <v>0.2534022057063161</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>712.176586508504</v>
+        <v>715.8492226666667</v>
       </c>
       <c r="H6">
-        <v>712.176586508504</v>
+        <v>2147.547668</v>
       </c>
       <c r="I6">
-        <v>0.4467344982637755</v>
+        <v>0.3636302831371944</v>
       </c>
       <c r="J6">
-        <v>0.4467344982637755</v>
+        <v>0.3636302831371944</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.9201308328135</v>
+        <v>31.999428</v>
       </c>
       <c r="N6">
-        <v>31.9201308328135</v>
+        <v>95.998284</v>
       </c>
       <c r="O6">
-        <v>0.2540534486230001</v>
+        <v>0.08531391482826334</v>
       </c>
       <c r="P6">
-        <v>0.2540534486230001</v>
+        <v>0.08531391482826335</v>
       </c>
       <c r="Q6">
-        <v>22732.76981741797</v>
+        <v>22906.76565957797</v>
       </c>
       <c r="R6">
-        <v>22732.76981741797</v>
+        <v>206160.8909362017</v>
       </c>
       <c r="S6">
-        <v>0.1134944399027778</v>
+        <v>0.03102272300454389</v>
       </c>
       <c r="T6">
-        <v>0.1134944399027778</v>
+        <v>0.03102272300454389</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>712.176586508504</v>
+        <v>715.8492226666667</v>
       </c>
       <c r="H7">
-        <v>712.176586508504</v>
+        <v>2147.547668</v>
       </c>
       <c r="I7">
-        <v>0.4467344982637755</v>
+        <v>0.3636302831371944</v>
       </c>
       <c r="J7">
-        <v>0.4467344982637755</v>
+        <v>0.3636302831371944</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>45.9004507531747</v>
+        <v>81.69901900000001</v>
       </c>
       <c r="N7">
-        <v>45.9004507531747</v>
+        <v>245.097057</v>
       </c>
       <c r="O7">
-        <v>0.3653233086127166</v>
+        <v>0.2178183668945166</v>
       </c>
       <c r="P7">
-        <v>0.3653233086127166</v>
+        <v>0.2178183668945167</v>
       </c>
       <c r="Q7">
-        <v>32689.22633659765</v>
+        <v>58484.17924377924</v>
       </c>
       <c r="R7">
-        <v>32689.22633659765</v>
+        <v>526357.6131940131</v>
       </c>
       <c r="S7">
-        <v>0.1632025249771644</v>
+        <v>0.07920535442633438</v>
       </c>
       <c r="T7">
-        <v>0.1632025249771644</v>
+        <v>0.07920535442633438</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>523.894213929016</v>
+        <v>784.4754839999999</v>
       </c>
       <c r="H8">
-        <v>523.894213929016</v>
+        <v>2353.426452</v>
       </c>
       <c r="I8">
-        <v>0.3286286340165711</v>
+        <v>0.3984903989955685</v>
       </c>
       <c r="J8">
-        <v>0.3286286340165711</v>
+        <v>0.3984903989955685</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>47.8227860038808</v>
+        <v>261.380203</v>
       </c>
       <c r="N8">
-        <v>47.8227860038808</v>
+        <v>784.1406089999999</v>
       </c>
       <c r="O8">
-        <v>0.3806232427642833</v>
+        <v>0.6968677182772199</v>
       </c>
       <c r="P8">
-        <v>0.3806232427642833</v>
+        <v>0.6968677182772199</v>
       </c>
       <c r="Q8">
-        <v>25054.08088139868</v>
+        <v>205046.3612564432</v>
       </c>
       <c r="R8">
-        <v>25054.08088139868</v>
+        <v>1845417.251307989</v>
       </c>
       <c r="S8">
-        <v>0.1250836963445842</v>
+        <v>0.2776950951034208</v>
       </c>
       <c r="T8">
-        <v>0.1250836963445842</v>
+        <v>0.2776950951034208</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>523.894213929016</v>
+        <v>784.4754839999999</v>
       </c>
       <c r="H9">
-        <v>523.894213929016</v>
+        <v>2353.426452</v>
       </c>
       <c r="I9">
-        <v>0.3286286340165711</v>
+        <v>0.3984903989955685</v>
       </c>
       <c r="J9">
-        <v>0.3286286340165711</v>
+        <v>0.3984903989955685</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>31.9201308328135</v>
+        <v>31.999428</v>
       </c>
       <c r="N9">
-        <v>31.9201308328135</v>
+        <v>95.998284</v>
       </c>
       <c r="O9">
-        <v>0.2540534486230001</v>
+        <v>0.08531391482826334</v>
       </c>
       <c r="P9">
-        <v>0.2540534486230001</v>
+        <v>0.08531391482826335</v>
       </c>
       <c r="Q9">
-        <v>16722.77185116817</v>
+        <v>25102.76676802315</v>
       </c>
       <c r="R9">
-        <v>16722.77185116817</v>
+        <v>225924.9009122083</v>
       </c>
       <c r="S9">
-        <v>0.08348923778817566</v>
+        <v>0.03399677595978861</v>
       </c>
       <c r="T9">
-        <v>0.08348923778817566</v>
+        <v>0.03399677595978861</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>523.894213929016</v>
+        <v>784.4754839999999</v>
       </c>
       <c r="H10">
-        <v>523.894213929016</v>
+        <v>2353.426452</v>
       </c>
       <c r="I10">
-        <v>0.3286286340165711</v>
+        <v>0.3984903989955685</v>
       </c>
       <c r="J10">
-        <v>0.3286286340165711</v>
+        <v>0.3984903989955685</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>45.9004507531747</v>
+        <v>81.69901900000001</v>
       </c>
       <c r="N10">
-        <v>45.9004507531747</v>
+        <v>245.097057</v>
       </c>
       <c r="O10">
-        <v>0.3653233086127166</v>
+        <v>0.2178183668945166</v>
       </c>
       <c r="P10">
-        <v>0.3653233086127166</v>
+        <v>0.2178183668945167</v>
       </c>
       <c r="Q10">
-        <v>24046.98056632197</v>
+        <v>64090.8774723502</v>
       </c>
       <c r="R10">
-        <v>24046.98056632197</v>
+        <v>576817.8972511517</v>
       </c>
       <c r="S10">
-        <v>0.1200556998838113</v>
+        <v>0.08679852793235908</v>
       </c>
       <c r="T10">
-        <v>0.1200556998838113</v>
+        <v>0.08679852793235908</v>
       </c>
     </row>
   </sheetData>
